--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GeologicalAssisstant\RL\GeologicalAssisstant\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Objects</t>
   </si>
@@ -104,9 +99,6 @@
     <t>accumulation of hydrocarbons inside a trap</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-sealing fault-depend trap </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sealing fault-depend trap </t>
   </si>
   <si>
@@ -144,9 +136,6 @@
   </si>
   <si>
     <t>R1 reservoir rock: anticline; R2 cap rock: anticline and in contact with (above) reservooir rock R1</t>
-  </si>
-  <si>
-    <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock, R3 Seal rock is on the other side of the fault F and in lateral contact with the R1</t>
   </si>
   <si>
     <t>one normal fault is created which split the rock unit into 2 rock units: footwall=rock unit A and hangingwall=rock unit B, a vertical movement of the hangingwall downwards; tensional stress is removed from the configuration</t>
@@ -165,12 +154,87 @@
       <t>trap</t>
     </r>
   </si>
+  <si>
+    <t>Trap fill to spill</t>
+  </si>
+  <si>
+    <t>hydrocarbons, trap, accumulation</t>
+  </si>
+  <si>
+    <t>Non-sealing fault-depend trap (only seal rock as lateral contact, on the other side of the fault)</t>
+  </si>
+  <si>
+    <t>Non-sealing fault-depend trap (seal rock and reservoir rock as lateral contact, on the other side of the fault)</t>
+  </si>
+  <si>
+    <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with the R1</t>
+  </si>
+  <si>
+    <t>Trap formation(R1, R4): on both sides of the fault F,  R1, R2, R3 , R4 and F unchanged</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>ID5</t>
+  </si>
+  <si>
+    <t>ID6</t>
+  </si>
+  <si>
+    <t>ID7</t>
+  </si>
+  <si>
+    <t>ID8</t>
+  </si>
+  <si>
+    <t>ID9</t>
+  </si>
+  <si>
+    <t>ID10</t>
+  </si>
+  <si>
+    <t>ID11</t>
+  </si>
+  <si>
+    <t>ID12</t>
+  </si>
+  <si>
+    <t>ID13</t>
+  </si>
+  <si>
+    <t>ID14</t>
+  </si>
+  <si>
+    <t>ID15</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with R1, on the upper part;  R4 Reservoir rock is on the other side of the fault F, in lateral contact with reservoir rock R1, and in contact with Seal Rock R3 (R4 below R3); R4 Reservoir Rock: anticline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accumulation of hydrocarbons inside the trap until the spill point; </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +270,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,13 +325,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,6 +351,233 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25514</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3919373</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>145498</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="637835" y="3526810"/>
+          <a:ext cx="5058971" cy="4493822"/>
+          <a:chOff x="637835" y="3526810"/>
+          <a:chExt cx="5058971" cy="4493822"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="637835" y="3526810"/>
+            <a:ext cx="5043148" cy="4493822"/>
+            <a:chOff x="620826" y="3526810"/>
+            <a:chExt cx="5043148" cy="4493822"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="4" name="Group 3"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="620826" y="3526810"/>
+              <a:ext cx="5043148" cy="4475563"/>
+              <a:chOff x="620826" y="3526810"/>
+              <a:chExt cx="5043148" cy="4475563"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="2" name="Picture 1"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill rotWithShape="1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:srcRect l="4030" t="15968" r="7463"/>
+              <a:stretch/>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="620826" y="3526810"/>
+                <a:ext cx="5043148" cy="4475563"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="3" name="TextBox 2"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4822031" y="3639911"/>
+                <a:ext cx="527645" cy="311496"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1"/>
+                  <a:t>ID13</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4065134" y="7756072"/>
+              <a:ext cx="1331647" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1"/>
+                <a:t>F (non-sealinf fault)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5060157" y="5885093"/>
+            <a:ext cx="636649" cy="342786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>point</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,7 +835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,185 +846,260 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="115.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="197.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="189.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="105" style="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="255.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
+      <c r="E16" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="15" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GeologicalAssisstant\RL\GeologicalAssisstant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GeologicalAssisstant\RL\RL-rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Objects</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Eroded rock, rivers, currents, air</t>
   </si>
   <si>
-    <t>Hydrocarbons accumulation</t>
-  </si>
-  <si>
     <t>Hydrocarbons generation</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>accumulation of hydrocarbons inside a trap</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-sealing fault-depend trap </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sealing fault-depend trap </t>
   </si>
   <si>
@@ -116,12 +110,6 @@
     <t>F fault: sealing fault (type of fault not important for this case), R1 reservoir rock, is dipping away from the fault, R2:cap rock in contact with (above) reservoir rock</t>
   </si>
   <si>
-    <t>accumulation of hydrocarbons inside trap</t>
-  </si>
-  <si>
-    <t>source rock, hydrocarbons,  migration, migration pathway, trap</t>
-  </si>
-  <si>
     <t>Structural traps</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
   </si>
   <si>
     <t>R1 reservoir rock: anticline; R2 cap rock: anticline and in contact with (above) reservooir rock R1</t>
-  </si>
-  <si>
-    <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock, R3 Seal rock is on the other side of the fault F and in lateral contact with the R1</t>
   </si>
   <si>
     <t>one normal fault is created which split the rock unit into 2 rock units: footwall=rock unit A and hangingwall=rock unit B, a vertical movement of the hangingwall downwards; tensional stress is removed from the configuration</t>
@@ -165,12 +150,72 @@
       <t>trap</t>
     </r>
   </si>
+  <si>
+    <t>Non-sealing fault-depend trap (only seal rock as lateral contact, on the other side of the fault)</t>
+  </si>
+  <si>
+    <t>Non-sealing fault-depend trap (seal rock and reservoir rock as lateral contact, on the other side of the fault)</t>
+  </si>
+  <si>
+    <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with the R1</t>
+  </si>
+  <si>
+    <t>Trap formation(R1, R4): on both sides of the fault F,  R1, R2, R3 , R4 and F unchanged</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>ID5</t>
+  </si>
+  <si>
+    <t>ID6</t>
+  </si>
+  <si>
+    <t>ID7</t>
+  </si>
+  <si>
+    <t>ID8</t>
+  </si>
+  <si>
+    <t>ID9</t>
+  </si>
+  <si>
+    <t>ID10</t>
+  </si>
+  <si>
+    <t>ID11</t>
+  </si>
+  <si>
+    <t>ID12</t>
+  </si>
+  <si>
+    <t>ID13</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with R1, on the upper part;  R4 Reservoir rock is on the other side of the fault F, in lateral contact with reservoir rock R1, and in contact with Seal Rock R3 (R4 below R3); R4 Reservoir Rock: anticline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +251,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,10 +306,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -249,6 +332,233 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25514</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3919373</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>145498</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="637835" y="3526810"/>
+          <a:ext cx="5058971" cy="4493822"/>
+          <a:chOff x="637835" y="3526810"/>
+          <a:chExt cx="5058971" cy="4493822"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="637835" y="3526810"/>
+            <a:ext cx="5043148" cy="4493822"/>
+            <a:chOff x="620826" y="3526810"/>
+            <a:chExt cx="5043148" cy="4493822"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="4" name="Group 3"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="620826" y="3526810"/>
+              <a:ext cx="5043148" cy="4475563"/>
+              <a:chOff x="620826" y="3526810"/>
+              <a:chExt cx="5043148" cy="4475563"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="2" name="Picture 1"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill rotWithShape="1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:srcRect l="4030" t="15968" r="7463"/>
+              <a:stretch/>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="620826" y="3526810"/>
+                <a:ext cx="5043148" cy="4475563"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="3" name="TextBox 2"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4822031" y="3639911"/>
+                <a:ext cx="527645" cy="311496"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1"/>
+                  <a:t>ID13</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4065134" y="7756072"/>
+              <a:ext cx="1331647" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1"/>
+                <a:t>F (non-sealinf fault)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5060157" y="5885093"/>
+            <a:ext cx="636649" cy="342786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>point</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,185 +827,237 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="115.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="197.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="189.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="105" style="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="255.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="15" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GeologicalAssisstant\RL\RL-rules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Objects</t>
   </si>
@@ -78,9 +83,6 @@
     <t>Eroded rock, rivers, currents, air</t>
   </si>
   <si>
-    <t>Hydrocarbons accumulation</t>
-  </si>
-  <si>
     <t>Hydrocarbons generation</t>
   </si>
   <si>
@@ -106,12 +108,6 @@
   </si>
   <si>
     <t>F fault: sealing fault (type of fault not important for this case), R1 reservoir rock, is dipping away from the fault, R2:cap rock in contact with (above) reservoir rock</t>
-  </si>
-  <si>
-    <t>accumulation of hydrocarbons inside trap</t>
-  </si>
-  <si>
-    <t>source rock, hydrocarbons,  migration, migration pathway, trap</t>
   </si>
   <si>
     <t>Structural traps</t>
@@ -155,12 +151,6 @@
     </r>
   </si>
   <si>
-    <t>Trap fill to spill</t>
-  </si>
-  <si>
-    <t>hydrocarbons, trap, accumulation</t>
-  </si>
-  <si>
     <t>Non-sealing fault-depend trap (only seal rock as lateral contact, on the other side of the fault)</t>
   </si>
   <si>
@@ -212,12 +202,6 @@
     <t>ID13</t>
   </si>
   <si>
-    <t>ID14</t>
-  </si>
-  <si>
-    <t>ID15</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -225,15 +209,12 @@
   </si>
   <si>
     <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with R1, on the upper part;  R4 Reservoir rock is on the other side of the fault F, in lateral contact with reservoir rock R1, and in contact with Seal Rock R3 (R4 below R3); R4 Reservoir Rock: anticline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accumulation of hydrocarbons inside the trap until the spill point; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,13 +310,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,7 +816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -849,7 +830,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,10 +843,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -879,7 +860,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -888,12 +869,12 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -907,7 +888,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -921,7 +902,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -930,26 +911,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -963,7 +944,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -977,121 +958,98 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Eroded rock, rivers, currents, air</t>
   </si>
   <si>
-    <t>Hydrocarbons accumulation</t>
-  </si>
-  <si>
     <t>Hydrocarbons generation</t>
   </si>
   <si>
@@ -106,12 +103,6 @@
   </si>
   <si>
     <t>F fault: sealing fault (type of fault not important for this case), R1 reservoir rock, is dipping away from the fault, R2:cap rock in contact with (above) reservoir rock</t>
-  </si>
-  <si>
-    <t>accumulation of hydrocarbons inside trap</t>
-  </si>
-  <si>
-    <t>source rock, hydrocarbons,  migration, migration pathway, trap</t>
   </si>
   <si>
     <t>Structural traps</t>
@@ -155,12 +146,6 @@
     </r>
   </si>
   <si>
-    <t>Trap fill to spill</t>
-  </si>
-  <si>
-    <t>hydrocarbons, trap, accumulation</t>
-  </si>
-  <si>
     <t>Non-sealing fault-depend trap (only seal rock as lateral contact, on the other side of the fault)</t>
   </si>
   <si>
@@ -212,29 +197,44 @@
     <t>ID13</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with R1, on the upper part;  R4 Reservoir rock is on the other side of the fault F, in lateral contact with reservoir rock R1, and in contact with Seal Rock R3 (R4 below R3); R4 Reservoir Rock: anticline</t>
+  </si>
+  <si>
     <t>ID14</t>
   </si>
   <si>
+    <t>High-density turbidite deposition</t>
+  </si>
+  <si>
+    <t>Low-density turbidite deposition</t>
+  </si>
+  <si>
+    <t>Source of sediments, slope, high-density turbidity current, accommodation space</t>
+  </si>
+  <si>
+    <t>High-density turbidite</t>
+  </si>
+  <si>
+    <t>Low-density turbidite</t>
+  </si>
+  <si>
+    <t>Source of sediments, slope, low-density turbidity current, accommodation space</t>
+  </si>
+  <si>
     <t>ID15</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with R1, on the upper part;  R4 Reservoir rock is on the other side of the fault F, in lateral contact with reservoir rock R1, and in contact with Seal Rock R3 (R4 below R3); R4 Reservoir Rock: anticline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accumulation of hydrocarbons inside the trap until the spill point; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,15 +295,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,13 +320,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +840,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,10 +853,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -879,7 +870,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -888,12 +879,12 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -907,7 +898,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -921,7 +912,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -930,26 +921,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -963,7 +954,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -977,120 +968,120 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>65</v>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GeologicalAssisstant\RL\RL-rules\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Objects</t>
   </si>
@@ -210,12 +205,36 @@
   <si>
     <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with R1, on the upper part;  R4 Reservoir rock is on the other side of the fault F, in lateral contact with reservoir rock R1, and in contact with Seal Rock R3 (R4 below R3); R4 Reservoir Rock: anticline</t>
   </si>
+  <si>
+    <t>ID14</t>
+  </si>
+  <si>
+    <t>High-density turbidite deposition</t>
+  </si>
+  <si>
+    <t>Low-density turbidite deposition</t>
+  </si>
+  <si>
+    <t>Source of sediments, slope, high-density turbidity current, accommodation space</t>
+  </si>
+  <si>
+    <t>High-density turbidite</t>
+  </si>
+  <si>
+    <t>Low-density turbidite</t>
+  </si>
+  <si>
+    <t>Source of sediments, slope, low-density turbidity current, accommodation space</t>
+  </si>
+  <si>
+    <t>ID15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,15 +295,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,10 +323,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,7 +840,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +998,7 @@
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1005,7 +1015,7 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1020,7 +1030,7 @@
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1035,7 +1045,7 @@
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1046,10 +1056,33 @@
         <v>41</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Objects</t>
   </si>
@@ -215,26 +216,62 @@
     <t>Low-density turbidite deposition</t>
   </si>
   <si>
-    <t>Source of sediments, slope, high-density turbidity current, accommodation space</t>
-  </si>
-  <si>
     <t>High-density turbidite</t>
   </si>
   <si>
     <t>Low-density turbidite</t>
   </si>
   <si>
-    <t>Source of sediments, slope, low-density turbidity current, accommodation space</t>
-  </si>
-  <si>
     <t>ID15</t>
+  </si>
+  <si>
+    <t>ID16</t>
+  </si>
+  <si>
+    <t>Definition of throw (vertical Separation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault F, hangingwall(TopSeal R1.2, Reservoir rock R2.2), footwall(TopSeal R1.1, Reservoir rock R2.1), , footwall moves down </t>
+  </si>
+  <si>
+    <t>Throw (vertical separation beween the footwall and the hangingwall)</t>
+  </si>
+  <si>
+    <t>If the throw is &lt; thickness of the ReservoirRock R2.1 -&gt; R2.1 is in lateral contact with the LateralSeal R1.2 until the juxtaposition point and with the RreservoirRock R2.2 from the juxtaposition point downward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the throw &gt; or = thickness of the ReservoirRock R2.1 -&gt; R2.1 is in lateral contact with (only) LateralSeal R1.2 </t>
+  </si>
+  <si>
+    <t>ID17</t>
+  </si>
+  <si>
+    <t>Juxtaposition between R2.1 and R2.2 acroos the fault F</t>
+  </si>
+  <si>
+    <t>Juxtaposition point is the point where top of R2.2 intersects R2.1</t>
+  </si>
+  <si>
+    <t>Definition of juxtaposition between 2 reservoir rock across a fault</t>
+  </si>
+  <si>
+    <t>fault F, ReservoirRock R2.1 in the footwall, ReservoirRock R2.2 in the hanging wall, Throw &lt; Thickness of R2.1</t>
+  </si>
+  <si>
+    <t>Source of sediments, slope, low-density turbidity current, accommodation space (basin)</t>
+  </si>
+  <si>
+    <t>Source of sediments, slope, high-density turbidity current, accommodation space (basin)</t>
+  </si>
+  <si>
+    <t>Turbidite facies distribution inside the accommodation space (marine basin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +332,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -316,17 +361,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,27 +401,29 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25514</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142033</xdr:rowOff>
+      <xdr:colOff>25517</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3919373</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>145498</xdr:rowOff>
+      <xdr:colOff>1511810</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28518</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="8" name="Group 7"/>
-        <xdr:cNvGrpSpPr/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="637835" y="3526810"/>
-          <a:ext cx="5058971" cy="4493822"/>
+          <a:off x="637838" y="4453770"/>
+          <a:ext cx="2651405" cy="2327293"/>
           <a:chOff x="637835" y="3526810"/>
-          <a:chExt cx="5058971" cy="4493822"/>
+          <a:chExt cx="5098856" cy="4475563"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -380,9 +434,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="637835" y="3526810"/>
-            <a:ext cx="5043148" cy="4493822"/>
+            <a:ext cx="5043148" cy="4475563"/>
             <a:chOff x="620826" y="3526810"/>
-            <a:chExt cx="5043148" cy="4493822"/>
+            <a:chExt cx="5043148" cy="4475563"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -406,7 +460,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill rotWithShape="1">
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -440,8 +494,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="4822031" y="3639911"/>
-                <a:ext cx="527645" cy="311496"/>
+                <a:off x="4822031" y="3639912"/>
+                <a:ext cx="661128" cy="382848"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -469,7 +523,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1400" b="1"/>
+                  <a:rPr lang="en-GB" sz="1000" b="1"/>
                   <a:t>ID13</a:t>
                 </a:r>
               </a:p>
@@ -483,8 +537,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4065134" y="7756072"/>
-              <a:ext cx="1331647" cy="264560"/>
+              <a:off x="3770764" y="7638325"/>
+              <a:ext cx="1558242" cy="358210"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -512,7 +566,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="1"/>
+                <a:rPr lang="en-GB" sz="600" b="1"/>
                 <a:t>F (non-sealinf fault)</a:t>
               </a:r>
             </a:p>
@@ -526,8 +580,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5060157" y="5885093"/>
-            <a:ext cx="636649" cy="342786"/>
+            <a:off x="5001283" y="5845844"/>
+            <a:ext cx="735408" cy="388298"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -555,7 +609,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:rPr lang="en-GB" sz="700" b="1">
                 <a:solidFill>
                   <a:srgbClr val="002060"/>
                 </a:solidFill>
@@ -568,6 +622,210 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365736</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>93503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1771704</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="978057" y="6846048"/>
+          <a:ext cx="2571080" cy="1938368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2191201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>98918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4758624</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>184591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3968634" y="6851463"/>
+          <a:ext cx="2567423" cy="1956655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382779</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102158</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1275862" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2160212" y="6854703"/>
+          <a:ext cx="1275862" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" b="1"/>
+            <a:t>ID16</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" b="1"/>
+            <a:t>Throw &gt; thickness of R2.1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3291378</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119164</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1275862" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5068811" y="6871709"/>
+          <a:ext cx="1275862" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" b="1"/>
+            <a:t>ID16</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" b="1"/>
+            <a:t>Throw &lt; thickness of R2.1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -826,7 +1084,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -837,10 +1095,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1256,7 @@
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1015,7 +1273,7 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1030,7 +1288,7 @@
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1045,7 +1303,7 @@
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1064,33 +1322,110 @@
         <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>65</v>
+      <c r="A16" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="11" scale="15" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Local reasoning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Objects</t>
   </si>
@@ -264,7 +264,129 @@
     <t>Source of sediments, slope, high-density turbidity current, accommodation space (basin)</t>
   </si>
   <si>
-    <t>Turbidite facies distribution inside the accommodation space (marine basin)</t>
+    <t>Facies classification and reservoir potential</t>
+  </si>
+  <si>
+    <t>Permeability decreases from 1 to 3</t>
+  </si>
+  <si>
+    <t>Porosity increases from 1 to 3</t>
+  </si>
+  <si>
+    <t>Sorting increases wfrom 1 to 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reservoir rock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has properties such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>porosity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permeability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sorting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which influence its quality </t>
+    </r>
+  </si>
+  <si>
+    <t>Reservoir properties distribution</t>
+  </si>
+  <si>
+    <t>Grain size decreases from 1 to 3</t>
+  </si>
+  <si>
+    <t>Gravel high density turbidites - located proximal inside the basin</t>
+  </si>
+  <si>
+    <t>Sandy high density turbidites - located median inside the basin</t>
+  </si>
+  <si>
+    <t>Low density turbidites - located distal inside the basin</t>
+  </si>
+  <si>
+    <t>Turbidite components</t>
+  </si>
+  <si>
+    <t>Lobe</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>Transition channel-lobe=channelized lobe</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1206,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1097,7 +1219,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:D19"/>
     </sheetView>
   </sheetViews>
@@ -1411,17 +1533,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -214,12 +214,6 @@
   </si>
   <si>
     <t>Low-density turbidite deposition</t>
-  </si>
-  <si>
-    <t>High-density turbidite</t>
-  </si>
-  <si>
-    <t>Low-density turbidite</t>
   </si>
   <si>
     <t>ID15</t>
@@ -362,9 +356,6 @@
     </r>
   </si>
   <si>
-    <t>Reservoir properties distribution</t>
-  </si>
-  <si>
     <t>Grain size decreases from 1 to 3</t>
   </si>
   <si>
@@ -377,16 +368,25 @@
     <t>Low density turbidites - located distal inside the basin</t>
   </si>
   <si>
-    <t>Turbidite components</t>
-  </si>
-  <si>
-    <t>Lobe</t>
-  </si>
-  <si>
-    <t>Channels</t>
-  </si>
-  <si>
     <t>Transition channel-lobe=channelized lobe</t>
+  </si>
+  <si>
+    <t>Turbidite channels</t>
+  </si>
+  <si>
+    <t>Turbidite lobe - high volume of sand, good lateral continuity, limites thickness, represent the most distal part of the system</t>
+  </si>
+  <si>
+    <t>Low-density turbidite system</t>
+  </si>
+  <si>
+    <t>High-density turbidite system</t>
+  </si>
+  <si>
+    <t>Turbidite system components:</t>
+  </si>
+  <si>
+    <t>Reservoir properties distribution:</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,8 +1219,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+    <sheetView topLeftCell="E15" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,39 +1444,39 @@
         <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1494,26 +1494,26 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1536,14 +1536,14 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>77</v>
+      <c r="A1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,62 +1571,62 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>79</v>
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
+      <c r="A15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GeologicalAssisstant\RL\GeoOntology\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
-    <sheet name="Local reasoning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Objects</t>
   </si>
@@ -258,142 +262,29 @@
     <t>Source of sediments, slope, high-density turbidity current, accommodation space (basin)</t>
   </si>
   <si>
-    <t>Facies classification and reservoir potential</t>
-  </si>
-  <si>
-    <t>Permeability decreases from 1 to 3</t>
-  </si>
-  <si>
-    <t>Porosity increases from 1 to 3</t>
-  </si>
-  <si>
-    <t>Sorting increases wfrom 1 to 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reservoir rock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> has properties such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>porosity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>permeability</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sorting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> which influence its quality </t>
-    </r>
-  </si>
-  <si>
-    <t>Grain size decreases from 1 to 3</t>
-  </si>
-  <si>
-    <t>Gravel high density turbidites - located proximal inside the basin</t>
-  </si>
-  <si>
-    <t>Sandy high density turbidites - located median inside the basin</t>
-  </si>
-  <si>
-    <t>Low density turbidites - located distal inside the basin</t>
-  </si>
-  <si>
-    <t>Transition channel-lobe=channelized lobe</t>
-  </si>
-  <si>
-    <t>Turbidite channels</t>
-  </si>
-  <si>
-    <t>Turbidite lobe - high volume of sand, good lateral continuity, limites thickness, represent the most distal part of the system</t>
-  </si>
-  <si>
-    <t>Low-density turbidite system</t>
-  </si>
-  <si>
-    <t>High-density turbidite system</t>
-  </si>
-  <si>
-    <t>Turbidite system components:</t>
-  </si>
-  <si>
-    <t>Reservoir properties distribution:</t>
+    <t xml:space="preserve">High-density turbidite </t>
+  </si>
+  <si>
+    <t>Low-density turbidite</t>
+  </si>
+  <si>
+    <t>Submarine fan deposition</t>
+  </si>
+  <si>
+    <t>ID18</t>
+  </si>
+  <si>
+    <t>Submarine fan (made up mostly of turbidites)</t>
+  </si>
+  <si>
+    <t>Source of sediments, slope, channelized turbidity currents and debris flow, accommodation space (basin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,14 +345,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -483,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,7 +374,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -524,13 +406,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25517</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1511810</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>28518</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -542,7 +424,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="637838" y="4453770"/>
+          <a:off x="637838" y="4640868"/>
           <a:ext cx="2651405" cy="2327293"/>
           <a:chOff x="637835" y="3526810"/>
           <a:chExt cx="5098856" cy="4475563"/>
@@ -748,13 +630,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>365736</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>93503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1771704</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>160889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -792,13 +674,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2191201</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>98918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4758624</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>184591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -836,7 +718,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>382779</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>102158</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1275862" cy="342786"/>
@@ -877,7 +759,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="800" b="1"/>
-            <a:t>ID16</a:t>
+            <a:t>ID17</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -894,7 +776,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3291378</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>119164</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1275862" cy="342786"/>
@@ -935,7 +817,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="800" b="1"/>
-            <a:t>ID16</a:t>
+            <a:t>ID17</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1206,7 +1088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1217,10 +1099,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1260,7 @@
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1395,7 +1277,7 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1292,7 @@
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1425,7 +1307,7 @@
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1436,201 +1318,111 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9" t="s">
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="11" scale="15" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Objects</t>
   </si>
@@ -154,15 +154,9 @@
     <t>Non-sealing fault-depend trap (only seal rock as lateral contact, on the other side of the fault)</t>
   </si>
   <si>
-    <t>Non-sealing fault-depend trap (seal rock and reservoir rock as lateral contact, on the other side of the fault)</t>
-  </si>
-  <si>
     <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with the R1</t>
   </si>
   <si>
-    <t>Trap formation(R1, R4): on both sides of the fault F,  R1, R2, R3 , R4 and F unchanged</t>
-  </si>
-  <si>
     <t>ID3</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>F non-sealing fault (type of fault not important for this case); R1 reservoir rock: is dipping away from the fault, R2 Cap rock in contact with (above) reservoir rock R1, R3 Seal rock is on the other side of the fault F and in lateral contact with R1, on the upper part;  R4 Reservoir rock is on the other side of the fault F, in lateral contact with reservoir rock R1, and in contact with Seal Rock R3 (R4 below R3); R4 Reservoir Rock: anticline</t>
-  </si>
-  <si>
     <t>ID14</t>
   </si>
   <si>
@@ -269,9 +260,6 @@
   </si>
   <si>
     <t>Submarine fan deposition</t>
-  </si>
-  <si>
-    <t>ID18</t>
   </si>
   <si>
     <t>Submarine fan (made up mostly of turbidites)</t>
@@ -284,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,22 +310,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,13 +338,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -402,241 +372,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25517</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1511810</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28518</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks noChangeAspect="1"/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="637838" y="4640868"/>
-          <a:ext cx="2651405" cy="2327293"/>
-          <a:chOff x="637835" y="3526810"/>
-          <a:chExt cx="5098856" cy="4475563"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="6" name="Group 5"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="637835" y="3526810"/>
-            <a:ext cx="5043148" cy="4475563"/>
-            <a:chOff x="620826" y="3526810"/>
-            <a:chExt cx="5043148" cy="4475563"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="4" name="Group 3"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="620826" y="3526810"/>
-              <a:ext cx="5043148" cy="4475563"/>
-              <a:chOff x="620826" y="3526810"/>
-              <a:chExt cx="5043148" cy="4475563"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="2" name="Picture 1"/>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill rotWithShape="1">
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:srcRect l="4030" t="15968" r="7463"/>
-              <a:stretch/>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="620826" y="3526810"/>
-                <a:ext cx="5043148" cy="4475563"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="3" name="TextBox 2"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4822031" y="3639912"/>
-                <a:ext cx="661128" cy="382848"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="1"/>
-                  <a:t>ID13</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3770764" y="7638325"/>
-              <a:ext cx="1558242" cy="358210"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="600" b="1"/>
-                <a:t>F (non-sealinf fault)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5001283" y="5845844"/>
-            <a:ext cx="735408" cy="388298"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="700" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>point</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>365736</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>93503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1771704</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>160889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -647,7 +393,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -674,13 +420,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2191201</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>98918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4758624</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>184591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -691,7 +437,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -718,7 +464,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>382779</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>102158</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1275862" cy="342786"/>
@@ -759,7 +505,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="800" b="1"/>
-            <a:t>ID17</a:t>
+            <a:t>ID16</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -776,7 +522,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3291378</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>119164</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1275862" cy="342786"/>
@@ -817,7 +563,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="800" b="1"/>
-            <a:t>ID17</a:t>
+            <a:t>ID16</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1099,10 +845,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,10 +861,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1132,7 +878,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1146,7 +892,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1160,7 +906,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1174,7 +920,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -1188,7 +934,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -1202,7 +948,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1216,7 +962,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1230,7 +976,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1244,7 +990,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
@@ -1256,11 +1002,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1275,9 +1021,9 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1290,135 +1036,119 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="E17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="1" t="s">
-        <v>70</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
+  <mergeCells count="4">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Objects</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Structural traps</t>
-  </si>
-  <si>
-    <t>source rock, organic matter, rapid burial, (enough) overburden pressure, temperature</t>
   </si>
   <si>
     <t>the rock unit is bended, an anticline is created, compressional stress is removed from configuration</t>
@@ -235,12 +232,6 @@
     <t>ID17</t>
   </si>
   <si>
-    <t>Juxtaposition between R2.1 and R2.2 acroos the fault F</t>
-  </si>
-  <si>
-    <t>Juxtaposition point is the point where top of R2.2 intersects R2.1</t>
-  </si>
-  <si>
     <t>Definition of juxtaposition between 2 reservoir rock across a fault</t>
   </si>
   <si>
@@ -266,6 +257,48 @@
   </si>
   <si>
     <t>Source of sediments, slope, channelized turbidity currents and debris flow, accommodation space (basin)</t>
+  </si>
+  <si>
+    <t>ID18</t>
+  </si>
+  <si>
+    <t>Reservoir rock definition</t>
+  </si>
+  <si>
+    <t>Juxtaposition between R2.1 and R2.2 acroos the fault F (Juxtaposition point is the point where top of R2.2 intersects R2.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandstone Reservoir rock </t>
+  </si>
+  <si>
+    <t>Sandstone rock that has porosity and has permeability, located inside a trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shale rock, that has no porosity and has no permeability, located above the reservoir rock </t>
+  </si>
+  <si>
+    <t>Top Seal</t>
+  </si>
+  <si>
+    <t>TopSeal definition</t>
+  </si>
+  <si>
+    <t>ID19</t>
+  </si>
+  <si>
+    <t>ID20</t>
+  </si>
+  <si>
+    <t>SourceRock definition</t>
+  </si>
+  <si>
+    <t>source rock, organic matter (contained in the source rock), rapid burial (of the source rock), temperature</t>
+  </si>
+  <si>
+    <t>Shale rock, organic matter (contained in the shale), canGenerate or hasGenerated  hydrocarbons</t>
+  </si>
+  <si>
+    <t>Shale Source rock</t>
   </si>
 </sst>
 </file>
@@ -344,14 +377,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +416,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1771704</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>160889</xdr:rowOff>
+      <xdr:rowOff>160888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -427,7 +460,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>4758624</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>184591</xdr:rowOff>
+      <xdr:rowOff>184590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -847,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,10 +894,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -878,7 +911,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -887,12 +920,12 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -906,7 +939,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -920,7 +953,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -929,12 +962,12 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -948,7 +981,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -962,7 +995,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -976,13 +1009,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -990,13 +1023,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -1004,26 +1037,26 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1031,124 +1064,162 @@
         <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Objects</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Shale Source rock</t>
+  </si>
+  <si>
+    <t>ID21</t>
+  </si>
+  <si>
+    <t>Fill-spill migration</t>
+  </si>
+  <si>
+    <t>SourceRock, Hydrocarbons, Traps(1…n), Migration Pathway</t>
+  </si>
+  <si>
+    <t>Trap1 filled to spill first, trap2 filled to spill next, …trap n filled to spill or underfilled or empty</t>
   </si>
 </sst>
 </file>
@@ -878,10 +890,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,6 +1223,20 @@
       </c>
       <c r="E23" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Objects</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Submarine fan (made up mostly of turbidites)</t>
   </si>
   <si>
-    <t>Source of sediments, slope, channelized turbidity currents and debris flow, accommodation space (basin)</t>
-  </si>
-  <si>
     <t>ID18</t>
   </si>
   <si>
@@ -311,6 +308,29 @@
   </si>
   <si>
     <t>Trap1 filled to spill first, trap2 filled to spill next, …trap n filled to spill or underfilled or empty</t>
+  </si>
+  <si>
+    <t>Source of sediments (shallow marine sediments), slope, channelized turbidity currents and debris flow, accommodation space (deep marine)</t>
+  </si>
+  <si>
+    <t>ID9.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">source rock, hydrocarbons, migration,  migration pathway (continuous sandstone from SR to the trap), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trap</t>
+    </r>
+  </si>
+  <si>
+    <t>Migration from source rock through a sandstone until the trap</t>
   </si>
 </sst>
 </file>
@@ -890,10 +910,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1047,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -1102,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>72</v>
@@ -1180,63 +1200,77 @@
         <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>91</v>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GeologicalAssisstant\RL\GeoOntology\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Objects</t>
   </si>
@@ -256,9 +251,6 @@
     <t>Submarine fan (made up mostly of turbidites)</t>
   </si>
   <si>
-    <t>Source of sediments, slope, channelized turbidity currents and debris flow, accommodation space (basin)</t>
-  </si>
-  <si>
     <t>ID18</t>
   </si>
   <si>
@@ -307,16 +299,39 @@
     <t>Fill-spill migration</t>
   </si>
   <si>
-    <t>SourceRock, Hydrocarbons, Traps(1…n), Migration Pathway</t>
-  </si>
-  <si>
-    <t>Trap1 filled to spill first, trap2 filled to spill next, …trap n filled to spill or underfilled or empty</t>
+    <t>Source of sediments (shallow marine sediments), slope, channelized turbidity currents and debris flow, accommodation space (deep marine)</t>
+  </si>
+  <si>
+    <t>ID9.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">source rock, hydrocarbons, migration,  migration pathway (continuous sandstone from SR to the trap), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trap</t>
+    </r>
+  </si>
+  <si>
+    <t>Migration from source rock through a sandstone until the trap</t>
+  </si>
+  <si>
+    <t>SourceRock, Hydrocarbons, Traps(1…n), Migration Pathway(lateral migration through the reservoir)</t>
+  </si>
+  <si>
+    <t>Trap1 filled to spill first, trap2 filled to spill next, …trap n filled to spill or underfilled or empty; if trap 1 is not filled to spill than no more further migration (spill) into trap 2 and so on.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -879,7 +894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -890,9 +905,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1027,7 +1042,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -1102,7 +1117,7 @@
         <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>72</v>
@@ -1180,63 +1195,77 @@
         <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Processes for RL.xlsx
+++ b/Processes for RL.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GeologicalAssisstant\RL\GeoOntology\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Objects</t>
   </si>
@@ -36,9 +41,6 @@
     <t>ReverseFaulting</t>
   </si>
   <si>
-    <t>a reverse fault is created which split the rock unit into 2 rock units: footwall=rock unit A and hangingwall=rock unit B, a vertical movement of the  hangingwall upwards; compressional stress is removed from configuration</t>
-  </si>
-  <si>
     <t>Strike-slipFaulting</t>
   </si>
   <si>
@@ -124,9 +126,6 @@
   </si>
   <si>
     <t>R1 reservoir rock: anticline; R2 cap rock: anticline and in contact with (above) reservooir rock R1</t>
-  </si>
-  <si>
-    <t>one normal fault is created which split the rock unit into 2 rock units: footwall=rock unit A and hangingwall=rock unit B, a vertical movement of the hangingwall downwards; tensional stress is removed from the configuration</t>
   </si>
   <si>
     <r>
@@ -299,6 +298,12 @@
     <t>Fill-spill migration</t>
   </si>
   <si>
+    <t>SourceRock, Hydrocarbons, Traps(1…n), Migration Pathway</t>
+  </si>
+  <si>
+    <t>Trap1 filled to spill first, trap2 filled to spill next, …trap n filled to spill or underfilled or empty</t>
+  </si>
+  <si>
     <t>Source of sediments (shallow marine sediments), slope, channelized turbidity currents and debris flow, accommodation space (deep marine)</t>
   </si>
   <si>
@@ -322,16 +327,40 @@
     <t>Migration from source rock through a sandstone until the trap</t>
   </si>
   <si>
-    <t>SourceRock, Hydrocarbons, Traps(1…n), Migration Pathway(lateral migration through the reservoir)</t>
-  </si>
-  <si>
-    <t>Trap1 filled to spill first, trap2 filled to spill next, …trap n filled to spill or underfilled or empty; if trap 1 is not filled to spill than no more further migration (spill) into trap 2 and so on.</t>
+    <t>ID22</t>
+  </si>
+  <si>
+    <t>Compaction</t>
+  </si>
+  <si>
+    <t>Cementation</t>
+  </si>
+  <si>
+    <t>Dissolution</t>
+  </si>
+  <si>
+    <t>ID23</t>
+  </si>
+  <si>
+    <t>ID24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandstone rock unit has less porosity, depth increases, </t>
+  </si>
+  <si>
+    <t>Sanstone rock unit with good depositional porosity, overburden rock unit, depth, burial process</t>
+  </si>
+  <si>
+    <t>one normal fault is created which split the rock unit into 2 rock units: footwall=rock unit A and hangingwall=rock unit B, a vertical movement of the hangingwall downwards; tilting of the blocks;  tensional stress is removed from the configuration</t>
+  </si>
+  <si>
+    <t>a reverse fault is created which split the rock unit into 2 rock units: footwall=rock unit A and hangingwall=rock unit B, a vertical movement of the  hangingwall upwards; tilting of the blocks; compressional stress is removed from configuration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -894,7 +923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -905,10 +934,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,10 +950,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -938,232 +967,232 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,7 +1201,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,77 +1210,77 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,7 +1294,37 @@
         <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
